--- a/data/air_info/深圳-成都.xlsx
+++ b/data/air_info/深圳-成都.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Desktop\air_info\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\PycharmProjects\BJUT_dsc\data\air_info\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{201B49C8-3FF4-434F-984E-FBFC6D362E68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD5A0C5F-A031-4350-9EC3-AE89D0242456}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,48 +33,27 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="43">
   <si>
-    <t>行程时间：2 小时 30 分钟</t>
-  </si>
-  <si>
-    <t>行程时间：2 小时 40 分钟</t>
-  </si>
-  <si>
     <t>深航经济舱Boeing 737ZH 9409</t>
   </si>
   <si>
     <t>海航经济舱Boeing 737HU 7175</t>
   </si>
   <si>
-    <t>行程时间：2 小时 20 分钟</t>
-  </si>
-  <si>
     <t>国航经济舱Boeing 737CA 4330</t>
   </si>
   <si>
-    <t>行程时间：2 小时 35 分钟</t>
-  </si>
-  <si>
     <t>东海航空经济舱Boeing 737DZ 6205</t>
   </si>
   <si>
-    <t>行程时间：2 小时 15 分钟</t>
-  </si>
-  <si>
     <t>川航经济舱Airbus A3203U 8710</t>
   </si>
   <si>
-    <t>行程时间：2 小时 45 分钟</t>
-  </si>
-  <si>
     <t>深航经济舱Airbus A330ZH 9415</t>
   </si>
   <si>
     <t>川航经济舱Airbus A3203U 8702</t>
   </si>
   <si>
-    <t>行程时间：2 小时 25 分钟</t>
-  </si>
-  <si>
     <t>多彩贵州航空经济舱Airbus A321 (Sharklets)GY 7190</t>
   </si>
   <si>
@@ -160,7 +139,27 @@
   </si>
   <si>
     <t>机票价格</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2 小时 40 分钟</t>
+  </si>
+  <si>
+    <t>2 小时 30 分钟</t>
+  </si>
+  <si>
+    <t>2 小时 20 分钟</t>
+  </si>
+  <si>
+    <t>2 小时 35 分钟</t>
+  </si>
+  <si>
+    <t>2 小时 15 分钟</t>
+  </si>
+  <si>
+    <t>2 小时 45 分钟</t>
+  </si>
+  <si>
+    <t>2 小时 25 分钟</t>
   </si>
 </sst>
 </file>
@@ -516,7 +515,7 @@
   <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -527,31 +526,30 @@
     <col min="4" max="4" width="31.36328125" style="1" customWidth="1"/>
     <col min="5" max="5" width="24.08984375" style="1" customWidth="1"/>
     <col min="6" max="6" width="52" style="1" customWidth="1"/>
-    <col min="7" max="7" width="23.453125" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.7265625" style="1"/>
+    <col min="7" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -559,23 +557,22 @@
         <v>0.3263888888888889</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>1</v>
+        <v>36</v>
       </c>
       <c r="D2" s="2">
         <v>0.4375</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G2" s="1">
-        <f ca="1">RANDBETWEEN(1500,2300)</f>
-        <v>1934</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -583,23 +580,22 @@
         <v>0.3298611111111111</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="D3" s="2">
         <v>0.43402777777777779</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G3" s="1">
-        <f t="shared" ref="G3:G27" ca="1" si="0">RANDBETWEEN(1500,2300)</f>
-        <v>2246</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -607,23 +603,22 @@
         <v>0.33680555555555558</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>4</v>
+        <v>38</v>
       </c>
       <c r="D4" s="2">
         <v>0.43402777777777779</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G4" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>2071</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -631,23 +626,22 @@
         <v>0.34375</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>6</v>
+        <v>39</v>
       </c>
       <c r="D5" s="2">
         <v>0.4513888888888889</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G5" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>2287</v>
+        <v>1509</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -655,23 +649,22 @@
         <v>0.34722222222222221</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="D6" s="2">
         <v>0.44097222222222221</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="G6" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>1779</v>
+        <v>1827</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -679,23 +672,22 @@
         <v>0.35416666666666669</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="D7" s="2">
         <v>0.46875</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="G7" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>1670</v>
+        <v>2213</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -703,23 +695,22 @@
         <v>0.43055555555555558</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>4</v>
+        <v>38</v>
       </c>
       <c r="D8" s="2">
         <v>0.52777777777777779</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="G8" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>2259</v>
+        <v>1608</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -727,23 +718,22 @@
         <v>0.4548611111111111</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="D9" s="2">
         <v>0.55555555555555558</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="G9" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>2092</v>
+        <v>1589</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -751,23 +741,22 @@
         <v>0.4826388888888889</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>1</v>
+        <v>36</v>
       </c>
       <c r="D10" s="2">
         <v>0.59375</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="G10" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>2061</v>
+        <v>1786</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -775,23 +764,22 @@
         <v>0.5</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>1</v>
+        <v>36</v>
       </c>
       <c r="D11" s="2">
         <v>0.61111111111111116</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="G11" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>2039</v>
+        <v>1694</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -799,23 +787,22 @@
         <v>0.52083333333333337</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>6</v>
+        <v>39</v>
       </c>
       <c r="D12" s="2">
         <v>0.62847222222222221</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G12" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>2280</v>
+        <v>1496</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -823,23 +810,22 @@
         <v>0.53819444444444442</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="D13" s="2">
         <v>0.64236111111111116</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="G13" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>1768</v>
+        <v>1555</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -847,23 +833,22 @@
         <v>0.59375</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>6</v>
+        <v>39</v>
       </c>
       <c r="D14" s="2">
         <v>0.70138888888888884</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="G14" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>2156</v>
+        <v>2083</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -871,23 +856,22 @@
         <v>0.64583333333333337</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="D15" s="2">
         <v>0.76041666666666663</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="G15" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>1695</v>
+        <v>1924</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -895,23 +879,22 @@
         <v>0.66319444444444442</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="D16" s="2">
         <v>0.76736111111111116</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="G16" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>1606</v>
+        <v>1791</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -919,23 +902,22 @@
         <v>0.66319444444444442</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>6</v>
+        <v>39</v>
       </c>
       <c r="D17" s="2">
         <v>0.77083333333333337</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="G17" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>1541</v>
+        <v>2256</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -943,23 +925,22 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="D18" s="2">
         <v>0.76736111111111116</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="G18" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>1810</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -967,23 +948,22 @@
         <v>0.69097222222222221</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>1</v>
+        <v>36</v>
       </c>
       <c r="D19" s="2">
         <v>0.80208333333333337</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="G19" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>1937</v>
+        <v>1811</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -991,23 +971,22 @@
         <v>0.69444444444444442</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="D20" s="2">
         <v>0.78819444444444442</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="G20" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>2113</v>
+        <v>1662</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -1015,23 +994,22 @@
         <v>0.72569444444444442</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="D21" s="2">
         <v>0.84027777777777779</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="G21" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>2050</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
@@ -1039,23 +1017,22 @@
         <v>0.77083333333333337</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="D22" s="2">
         <v>0.88541666666666663</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="G22" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>1748</v>
+        <v>1806</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
@@ -1063,23 +1040,22 @@
         <v>0.80555555555555558</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>4</v>
+        <v>38</v>
       </c>
       <c r="D23" s="2">
         <v>0.90277777777777779</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="G23" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>2109</v>
+        <v>2004</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
@@ -1087,23 +1063,22 @@
         <v>0.80902777777777779</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="D24" s="2">
         <v>0.90972222222222221</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="G24" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>2001</v>
+        <v>1835</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
@@ -1111,23 +1086,22 @@
         <v>0.84375</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="D25" s="2">
         <v>0.94791666666666663</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="G25" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>2080</v>
+        <v>1809</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
@@ -1135,23 +1109,22 @@
         <v>0.85416666666666663</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>6</v>
+        <v>39</v>
       </c>
       <c r="D26" s="2">
         <v>0.96180555555555558</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="G26" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>2030</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
@@ -1159,23 +1132,22 @@
         <v>0.85763888888888884</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>4</v>
+        <v>38</v>
       </c>
       <c r="D27" s="2">
         <v>0.95486111111111116</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="G27" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>1653</v>
+        <v>2153</v>
       </c>
     </row>
   </sheetData>
